--- a/notebooks/TBX1/input/TBX1_individuals.xlsx
+++ b/notebooks/TBX1/input/TBX1_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/TBX1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8996454-5355-3F41-9961-D91F26582C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D92A32-AC3B-0A4E-BD44-64703F0CEB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="1520" windowWidth="30280" windowHeight="19640" xr2:uid="{211B1EAC-066C-6F4A-9A39-79819E38434D}"/>
   </bookViews>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="170">
   <si>
     <t>PMID</t>
   </si>
@@ -422,9 +422,6 @@
     <t>F3-3</t>
   </si>
   <si>
-    <t>H194Q</t>
-  </si>
-  <si>
     <t>III-C</t>
   </si>
   <si>
@@ -702,6 +699,15 @@
   </si>
   <si>
     <t>allele_2</t>
+  </si>
+  <si>
+    <t>Childhood onset</t>
+  </si>
+  <si>
+    <t>H194Q-Patient</t>
+  </si>
+  <si>
+    <t>H194Q-Father</t>
   </si>
 </sst>
 </file>
@@ -797,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -818,7 +824,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1153,15 +1158,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD5D79E-1EF1-4540-BCD3-45689B3A46B6}">
   <dimension ref="A1:AP29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="7" max="8" width="11" style="8"/>
     <col min="10" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11" style="14"/>
+    <col min="12" max="12" width="11" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -1184,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1196,9 +1200,9 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1220,64 +1224,64 @@
         <v>33</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>39</v>
       </c>
       <c r="X1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>42</v>
       </c>
       <c r="AI1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="AM1" s="5" t="s">
         <v>48</v>
@@ -1289,12 +1293,12 @@
         <v>52</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="8" t="s">
-        <v>162</v>
+      <c r="A2" t="s">
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -1303,18 +1307,18 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1326,14 +1330,14 @@
       <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>14</v>
@@ -1351,7 +1355,7 @@
         <v>35</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>36</v>
@@ -1363,34 +1367,34 @@
         <v>40</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="Z2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="AH2" s="5" t="s">
         <v>43</v>
@@ -1436,11 +1440,11 @@
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>18</v>
@@ -1451,14 +1455,14 @@
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>28</v>
@@ -1561,11 +1565,11 @@
       <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>18</v>
@@ -1576,14 +1580,14 @@
       <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>28</v>
@@ -1686,11 +1690,11 @@
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>18</v>
@@ -1701,14 +1705,14 @@
       <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>29</v>
@@ -1811,11 +1815,11 @@
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>18</v>
@@ -1826,14 +1830,14 @@
       <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>28</v>
@@ -1936,11 +1940,11 @@
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>18</v>
@@ -1951,14 +1955,14 @@
       <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>29</v>
@@ -2050,7 +2054,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>64</v>
@@ -2061,23 +2065,23 @@
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>103</v>
+      <c r="L8" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>15</v>
@@ -2086,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>15</v>
@@ -2175,7 +2179,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>65</v>
@@ -2186,29 +2190,29 @@
       <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>104</v>
+      <c r="L9" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>28</v>
@@ -2300,7 +2304,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>66</v>
@@ -2311,29 +2315,29 @@
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>104</v>
+      <c r="L10" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>29</v>
@@ -2425,7 +2429,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>67</v>
@@ -2436,29 +2440,29 @@
       <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>104</v>
+      <c r="L11" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>29</v>
@@ -2550,7 +2554,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>68</v>
@@ -2561,29 +2565,29 @@
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>105</v>
+      <c r="L12" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>28</v>
@@ -2675,7 +2679,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>68</v>
@@ -2686,23 +2690,23 @@
       <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>106</v>
+      <c r="L13" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>15</v>
@@ -2800,7 +2804,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>69</v>
@@ -2811,29 +2815,29 @@
       <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>107</v>
+      <c r="L14" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>28</v>
@@ -2925,7 +2929,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>70</v>
@@ -2936,29 +2940,29 @@
       <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>108</v>
+      <c r="L15" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>29</v>
@@ -3050,7 +3054,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>71</v>
@@ -3061,29 +3065,29 @@
       <c r="F16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>109</v>
+      <c r="L16" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>28</v>
@@ -3175,7 +3179,7 @@
         <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>72</v>
@@ -3186,29 +3190,29 @@
       <c r="F17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>109</v>
+      <c r="L17" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>28</v>
@@ -3300,7 +3304,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>73</v>
@@ -3311,29 +3315,29 @@
       <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>109</v>
+      <c r="L18" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>29</v>
@@ -3425,10 +3429,10 @@
         <v>60</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -3436,29 +3440,29 @@
       <c r="F19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="12" t="s">
-        <v>110</v>
+      <c r="L19" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>29</v>
@@ -3550,10 +3554,10 @@
         <v>60</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -3561,23 +3565,23 @@
       <c r="F20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>110</v>
+      <c r="L20" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>15</v>
@@ -3675,7 +3679,7 @@
         <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>68</v>
@@ -3686,29 +3690,29 @@
       <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>111</v>
+      <c r="L21" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>29</v>
@@ -3800,10 +3804,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -3811,29 +3815,29 @@
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>112</v>
+      <c r="L22" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>29</v>
@@ -3925,10 +3929,10 @@
         <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -3936,29 +3940,29 @@
       <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>112</v>
+      <c r="L23" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>29</v>
@@ -4050,10 +4054,10 @@
         <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -4061,29 +4065,29 @@
       <c r="F24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>112</v>
+      <c r="L24" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>28</v>
@@ -4175,10 +4179,10 @@
         <v>62</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -4186,29 +4190,29 @@
       <c r="F25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>112</v>
+      <c r="L25" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>29</v>
@@ -4300,10 +4304,10 @@
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -4311,29 +4315,29 @@
       <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="12" t="s">
         <v>15</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>29</v>
@@ -4425,10 +4429,10 @@
         <v>63</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
@@ -4436,22 +4440,22 @@
       <c r="F27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="12" t="s">
         <v>15</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -4550,10 +4554,10 @@
         <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
@@ -4561,22 +4565,22 @@
       <c r="F28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="12" t="s">
         <v>15</v>
       </c>
       <c r="M28" s="2" t="s">
